--- a/formData.xlsx
+++ b/formData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IlabAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FB03F-BE65-44A4-9936-1E9415CEA26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B3239-C10F-45AC-8FA0-5BCB0A8DFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Key</t>
   </si>
@@ -49,16 +49,41 @@
   </si>
   <si>
     <t>automationAssessment@iLABQuality.com</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.ilabquality.com/</t>
+  </si>
+  <si>
+    <t>Text to Validate</t>
+  </si>
+  <si>
+    <t>Please complete this required field.</t>
+  </si>
+  <si>
+    <t>Broswer Type</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DEBFBBA-C386-4130-A1EC-EDA55E20DC40}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{5DEBFBBA-C386-4130-A1EC-EDA55E20DC40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DEBFBBA-C386-4130-A1EC-EDA55E20DC40}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{5DEBFBBA-C386-4130-A1EC-EDA55E20DC40}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A2379887-CDCE-4789-9022-23BBDE1CA7BD}" name="Key"/>
     <tableColumn id="2" xr3:uid="{D9394D16-E5E5-4509-8164-2308F2A5F288}" name="Value"/>
@@ -377,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -399,32 +425,57 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>